--- a/Trump_Admin.xlsx
+++ b/Trump_Admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleymathew/Downloads/Spring 2023/Advanced Policy Analysis/Repositories/Contracting_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902AF25-9D1A-FB40-992B-FBA99145BDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B9C6F-711F-5E44-BFCE-F7D1D8CDCE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Other Minority Owned Business Dollars</t>
   </si>
   <si>
-    <t>DEPT OF DEFENSE</t>
-  </si>
-  <si>
     <t>EDUCATION, DEPARTMENT OF</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>DEPARTMENT OF ENERGY</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF DEFENSE</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6">
         <v>1505015109397.52</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="3" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>125821611386.83</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6">
         <v>125718563365.25999</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="5" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>118505812360.33</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="6" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>71162388007.660004</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>38584119823.360001</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6">
         <v>34556908389.190002</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="9" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>33771759622.080002</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="10" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6">
         <v>28790457611.950001</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="11" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
         <v>21617629918.810001</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
         <v>18581618741.43</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="13" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
         <v>17129888191.51</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>11072090383.030001</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6">
         <v>8334755297.25</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="16" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
         <v>4080669141.6999998</v>
